--- a/Chapter_15_V_Software/V-software.xlsx
+++ b/Chapter_15_V_Software/V-software.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vlang\The_Way_to_V\Chapter_14_V_Modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vlang\The_Way_to_V\Chapter_15_V_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -42,13 +42,85 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Messaging client</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>Native desktop client for Slack, Skype, Matrix, Telegram, Twitch and many more services.</t>
+  </si>
+  <si>
+    <t>https://volt-app.com/</t>
+  </si>
+  <si>
+    <t>Text Editor</t>
+  </si>
+  <si>
+    <t>Vid</t>
+  </si>
+  <si>
+    <t>Open-source 1 MB editor with the performance of Sublime Text.</t>
+  </si>
+  <si>
+    <t>https://github.com/vlang/vid</t>
+  </si>
+  <si>
+    <t>Software tooling</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Cross-platform file manager</t>
+  </si>
+  <si>
+    <t>Gitly</t>
+  </si>
+  <si>
+    <t>Open-source light and fast alternative to GitHub/GitLab.</t>
+  </si>
+  <si>
+    <t>https://github.com/medvednikov/gitly</t>
+  </si>
+  <si>
+    <t>http://gitly.org/</t>
+  </si>
+  <si>
+    <t>V blog</t>
+  </si>
+  <si>
+    <t>Blogging software</t>
+  </si>
+  <si>
+    <t>https://blog.vlang.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filey </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Compilers/Interpreters</t>
+  </si>
+  <si>
+    <t>https://github.com/vpervenditti/vbf</t>
+  </si>
+  <si>
+    <t>A brainfuck interpreter/compiler written in V</t>
+  </si>
+  <si>
+    <t>vbf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +142,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,15 +197,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,22 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="29.4" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="29.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -399,26 +515,140 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="E18" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>